--- a/migforecasting/cities11-12/4/d14.xlsx
+++ b/migforecasting/cities11-12/4/d14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities11-12\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1137,7 +1137,7 @@
     <t>Чебоксары</t>
   </si>
   <si>
-    <t xml:space="preserve"> Новочебоксарск</t>
+    <t>Новочебоксарск</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:H81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
